--- a/workspace/Progress.xlsx
+++ b/workspace/Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Things to be done</t>
   </si>
@@ -121,14 +121,28 @@
   </si>
   <si>
     <t>Everyone</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Teddy/Hidde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -156,8 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -472,53 +487,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -527,67 +549,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -596,9 +615,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -607,9 +626,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -618,57 +637,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/workspace/Progress.xlsx
+++ b/workspace/Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Things to be done</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -622,6 +622,9 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">

--- a/workspace/Progress.xlsx
+++ b/workspace/Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Things to be done</t>
   </si>
@@ -490,18 +490,18 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.3984375" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -535,7 +535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -549,7 +549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -588,12 +588,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -648,52 +648,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>

--- a/workspace/Progress.xlsx
+++ b/workspace/Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Things to be done</t>
   </si>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -652,6 +652,9 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -659,6 +662,12 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">

--- a/workspace/Progress.xlsx
+++ b/workspace/Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Things to be done</t>
   </si>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -592,6 +592,12 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">

--- a/workspace/Progress.xlsx
+++ b/workspace/Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Things to be done</t>
   </si>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -680,6 +680,12 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">

--- a/workspace/Progress.xlsx
+++ b/workspace/Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Things to be done</t>
   </si>
@@ -81,18 +81,6 @@
     <t>Extended use case descriptions (2)</t>
   </si>
   <si>
-    <t>Class diagram 1</t>
-  </si>
-  <si>
-    <t>Class diagram 2</t>
-  </si>
-  <si>
-    <t>Class diagram 3</t>
-  </si>
-  <si>
-    <t>Class diagram 4</t>
-  </si>
-  <si>
     <t>Sequence diagram 1</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>Use case management</t>
   </si>
   <si>
-    <t>Class diagram management</t>
-  </si>
-  <si>
     <t>Everyone</t>
   </si>
   <si>
@@ -127,6 +112,9 @@
   </si>
   <si>
     <t>Teddy/Hidde</t>
+  </si>
+  <si>
+    <t>Class diagram</t>
   </si>
 </sst>
 </file>
@@ -487,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -523,16 +511,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -543,10 +531,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -554,10 +542,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -571,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -585,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -656,7 +644,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -689,37 +677,29 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>25</v>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/workspace/Progress.xlsx
+++ b/workspace/Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>Things to be done</t>
   </si>
@@ -478,18 +478,18 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.3984375" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -523,7 +523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -537,7 +537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -562,7 +562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -576,7 +576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -631,7 +631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -675,7 +675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -686,12 +686,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
